--- a/va_facility_data_2025-02-20/Ardmore VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Ardmore%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Ardmore VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Ardmore%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2c63c978c3bf41f4a6e96c5a3717ab8e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc31a212a9cde41b696fdf8f6845adb4a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R25dc89147ca64a6094c2759ddbe3c71a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R01a5457e63514795912f151ae765f884"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbbed685a1f3746c18d51ed093cac27b6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R47f9669a91354b5eabf720b0194e2dea"/>
   </x:sheets>
 </x:workbook>
 </file>
